--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Alojamiento) Ver disponibilidad.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Alojamiento) Ver disponibilidad.xlsx
@@ -484,7 +484,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="1045">
+    <comment ref="G18" authorId="0" shapeId="1035">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="1035">
+    <comment ref="G19" authorId="0" shapeId="1036">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="1036">
+    <comment ref="B22" authorId="0" shapeId="1037">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="1037">
+    <comment ref="C22" authorId="0" shapeId="1038">
       <text>
         <r>
           <rPr>
@@ -664,7 +664,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="1038">
+    <comment ref="B26" authorId="0" shapeId="1039">
       <text>
         <r>
           <rPr>
@@ -709,7 +709,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="1039">
+    <comment ref="F26" authorId="0" shapeId="1040">
       <text>
         <r>
           <rPr>
@@ -754,7 +754,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="1040">
+    <comment ref="B27" authorId="0" shapeId="1041">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="1041">
+    <comment ref="F27" authorId="0" shapeId="1042">
       <text>
         <r>
           <rPr>
@@ -844,7 +844,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="1042">
+    <comment ref="B28" authorId="0" shapeId="1043">
       <text>
         <r>
           <rPr>
@@ -889,7 +889,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="1043">
+    <comment ref="F28" authorId="0" shapeId="1044">
       <text>
         <r>
           <rPr>
@@ -935,7 +935,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="1044">
+    <comment ref="B31" authorId="0" shapeId="1045">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="39" uniqueCount="37">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="42" uniqueCount="39">
   <si>
     <t>Caso de uso</t>
   </si>
@@ -1083,19 +1083,25 @@
     <t>Incluir CUXX_Agregar reserva</t>
   </si>
   <si>
-    <t>Fin</t>
-  </si>
-  <si>
     <t>Baja</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Sin implementar</t>
   </si>
   <si>
-    <t>Alto</t>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Acceder al CU agregar_reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin del caso de uso </t>
   </si>
 </sst>
 </file>
@@ -1565,26 +1571,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1594,17 +1598,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2733,6 +2739,113 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>9</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Comment 21" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7296150" y="3381375"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-CL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Andrés Vega Yáñez:</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+                <a:ea typeface="Tahoma"/>
+                <a:cs typeface="Tahoma"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-CL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Acción realizada por el sistema.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
@@ -2745,7 +2858,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Comment 11" hidden="1"/>
+            <xdr:cNvPr id="1036" name="Comment 11" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2852,7 +2965,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Comment 12" hidden="1"/>
+            <xdr:cNvPr id="1037" name="Comment 12" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2959,7 +3072,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Comment 13" hidden="1"/>
+            <xdr:cNvPr id="1038" name="Comment 13" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3066,7 +3179,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Comment 14" hidden="1"/>
+            <xdr:cNvPr id="1039" name="Comment 14" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3173,7 +3286,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Comment 15" hidden="1"/>
+            <xdr:cNvPr id="1040" name="Comment 15" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3280,7 +3393,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Comment 16" hidden="1"/>
+            <xdr:cNvPr id="1041" name="Comment 16" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3387,7 +3500,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Comment 17" hidden="1"/>
+            <xdr:cNvPr id="1042" name="Comment 17" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3494,7 +3607,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Comment 18" hidden="1"/>
+            <xdr:cNvPr id="1043" name="Comment 18" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3601,7 +3714,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Comment 19" hidden="1"/>
+            <xdr:cNvPr id="1044" name="Comment 19" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3724,7 +3837,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Comment 20" hidden="1"/>
+            <xdr:cNvPr id="1045" name="Comment 20" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -3805,113 +3918,6 @@
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
                 <a:t>Comentarios adicionales sobre el caso de uso.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Comment 21" hidden="1"/>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="7296150" y="3381375"/>
-              <a:ext cx="1371600" cy="742950"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFE1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-CL" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Andrés Vega Yáñez:</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-CL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Acción realizada por el sistema.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4188,8 +4194,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4206,89 +4212,95 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="F5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
@@ -4307,263 +4319,250 @@
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
+      <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="43"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="42">
+      <c r="E18" s="21"/>
+      <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="B19" s="11">
         <v>5</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
@@ -4580,11 +4579,24 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
